--- a/medicine/Médecine vétérinaire/Michael_O'Callaghan/Michael_O'Callaghan.xlsx
+++ b/medicine/Médecine vétérinaire/Michael_O'Callaghan/Michael_O'Callaghan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michael_O%27Callaghan</t>
+          <t>Michael_O'Callaghan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael William O'Callaghan, ou plus simplement Mike O'Callaghan, ou Mick O'Callaghan, né le 27 avril 1946 à Culverden, est un ancien joueur de rugby à XV, qui a joué avec l'équipe de Nouvelle-Zélande, Manawatu et le Stade toulousain, évoluant au poste de trois quart aile (1,75 m pour 72 kg).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michael_O%27Callaghan</t>
+          <t>Michael_O'Callaghan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des débuts brillants en club avec Manawatu (meilleur marqueur en 1969 et 1970) et une participation à la série des All Blacks contre la France en 1968, il poursuit des études de vétérinaire en France, et rejoint ensuite la Grande-Bretagne. Il obtient quatre sélections pour l'Université de Cambridge contre Oxford (appelées blue) en 1974, 1975, 1976 et 1977.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michael_O%27Callaghan</t>
+          <t>Michael_O'Callaghan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clubs et province
-Club
+          <t>Clubs et province</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Club
 1966 : Massey University  Nouvelle-Zélande
 1970-1971 : Stade poitevin  France
 1971-1974 : Stade toulousain  France
@@ -553,10 +572,7 @@
 Province
 1967-1969 : Manawatu  Nouvelle-Zélande
 1970 : Waikato  Nouvelle-Zélande
-1978-1980 : Manawatu  Nouvelle-Zélande
-Équipe nationale
-Il a eu sa première cape internationale le 13 juillet 1968, à l’occasion d’un match contre la France. Sa dernière sélection est contre la France le 10 août 1968.
-</t>
+1978-1980 : Manawatu  Nouvelle-Zélande</t>
         </is>
       </c>
     </row>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michael_O%27Callaghan</t>
+          <t>Michael_O'Callaghan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,15 +597,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Équipe nationale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a eu sa première cape internationale le 13 juillet 1968, à l’occasion d’un match contre la France. Sa dernière sélection est contre la France le 10 août 1968.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michael_O'Callaghan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_O%27Callaghan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Club et province
-L'équipe de l'école vétérinaire de Toulouse a pu atteindre les demi-finales du championnat universitaire en 1971.
-Équipe nationale
-3 sélections avec les All Blacks
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Club et province</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équipe de l'école vétérinaire de Toulouse a pu atteindre les demi-finales du championnat universitaire en 1971.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michael_O'Callaghan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_O%27Callaghan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Équipe nationale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 sélections avec les All Blacks
 Sélections par année :  3 en 1968
 0 point</t>
         </is>
